--- a/biology/Zoologie/Barbican_à_collier/Barbican_à_collier.xlsx
+++ b/biology/Zoologie/Barbican_à_collier/Barbican_à_collier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbican_%C3%A0_collier</t>
+          <t>Barbican_à_collier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lybius torquatus
 Le Barbican à collier (Lybius torquatus) est une espèce d'oiseaux de la famille des Lybiidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbican_%C3%A0_collier</t>
+          <t>Barbican_à_collier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur l'Afrique du Sud, l'Angola, le Botswana, le Burundi, l'Ouganda, la République démocratique du Congo, le Kenya, le Lesotho, le Malawi, la Tanzanie, le Mozambique, la Namibie, le Rwanda, le Swaziland, la Zambie et le Zimbabwe.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbican_%C3%A0_collier</t>
+          <t>Barbican_à_collier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 7 sous-espèces :
 Lybius torquatus bocagei (Sousa, 1886)
